--- a/HowDoIs.xlsx
+++ b/HowDoIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iaairl-my.sharepoint.com/personal/liam_waters_iaa_ie/Documents/Temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC104841095F7E2A5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08517252-11CB-4D96-B6F9-83A4081659B4}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC104841095F7E2A5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC154FCB-1AC2-4CD0-85B1-B575DC0E314A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,10 +81,10 @@
 The License Summary displays purchase information related to traditional Microsoft Volume License programs beginning in 1994. These programs include (but are not limited to) Open, Open Value, Select, Select Plus, and Enterprise.</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -417,10 +419,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
